--- a/src/features/video_recording_info_backup.xlsx
+++ b/src/features/video_recording_info_backup.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prasadmaduranga/higher_studies/research/Stroke research/Projects/Staying connected Project/My Projects/stayingconnected_vision_analysis/src/features/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC901C0-9EB6-9241-88FF-A46B4C6123DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508F7D82-D53B-D84F-9D5D-CC1E77A53BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="880" windowWidth="33600" windowHeight="18840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23220" yWindow="-20540" windowWidth="21120" windowHeight="18840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="video_recording_info" sheetId="1" r:id="rId1"/>
-    <sheet name="task_timing_info" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="task_timing_info" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="134">
   <si>
     <t>participant_id</t>
   </si>
@@ -126,6 +128,303 @@
   </si>
   <si>
     <t>output_file</t>
+  </si>
+  <si>
+    <t>7001_E1_DW_left.mp4</t>
+  </si>
+  <si>
+    <t>7001_E1_DW_right.mp4</t>
+  </si>
+  <si>
+    <t>FPT</t>
+  </si>
+  <si>
+    <t>7001_E1_FPT_left.mp4</t>
+  </si>
+  <si>
+    <t>7001_E1_FPT_right.mp4</t>
+  </si>
+  <si>
+    <t>OHA_L1</t>
+  </si>
+  <si>
+    <t>bilateral</t>
+  </si>
+  <si>
+    <t>7001_E1_OHA_L1_bilateral.mp4</t>
+  </si>
+  <si>
+    <t>OHA_L2</t>
+  </si>
+  <si>
+    <t>7001_E1_OHA_L2_bilateral.mp4</t>
+  </si>
+  <si>
+    <t>OHA_L3</t>
+  </si>
+  <si>
+    <t>7001_E1_OHA_L3_bilateral.mp4</t>
+  </si>
+  <si>
+    <t>7002_E1_DW_left.mp4</t>
+  </si>
+  <si>
+    <t>7002_E1_DW_right.mp4</t>
+  </si>
+  <si>
+    <t>7002_E1_FPT_left.mp4</t>
+  </si>
+  <si>
+    <t>7002_E1_FPT_right.mp4</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>7002_E1_FT_left.mp4</t>
+  </si>
+  <si>
+    <t>7002_E1_FT_right.mp4</t>
+  </si>
+  <si>
+    <t>7002_E1_OHA_L1_bilateral.mp4</t>
+  </si>
+  <si>
+    <t>7002_E1_OHA_L2_bilateral.mp4</t>
+  </si>
+  <si>
+    <t>7002_E1_OHA_L3_bilateral.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backup </t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>7002_S1_DW_left.mp4</t>
+  </si>
+  <si>
+    <t>7002_S1_DW_right.mp4</t>
+  </si>
+  <si>
+    <t>7002_S1_FPT_left.mp4</t>
+  </si>
+  <si>
+    <t>7002_S1_FPT_right.mp4</t>
+  </si>
+  <si>
+    <t>7002_S1_FT_left.mp4</t>
+  </si>
+  <si>
+    <t>7002_S1_FT_right.mp4</t>
+  </si>
+  <si>
+    <t>7002_S1_OHA_L1_bilateral.mp4</t>
+  </si>
+  <si>
+    <t>7002_S1_OHA_L2_bilateral.mp4</t>
+  </si>
+  <si>
+    <t>7002_S1_OHA_L3_bilateral.mp4</t>
+  </si>
+  <si>
+    <t>7001_S1_DW_left.mp4</t>
+  </si>
+  <si>
+    <t>7001_S1_DW_right.mp4</t>
+  </si>
+  <si>
+    <t>7001_S1_FPT_left.mp4</t>
+  </si>
+  <si>
+    <t>7001_S1_FPT_right.mp4</t>
+  </si>
+  <si>
+    <t>7001_S1_OHA_L1_bilateral.mp4</t>
+  </si>
+  <si>
+    <t>7001_S1_OHA_L2_bilateral.mp4</t>
+  </si>
+  <si>
+    <t>7001_S1_OHA_L3_bilateral.mp4</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>7001_P1_DW_left.mp4</t>
+  </si>
+  <si>
+    <t>7001_P1_DW_right.mp4</t>
+  </si>
+  <si>
+    <t>7001_P1_FPT_left.mp4</t>
+  </si>
+  <si>
+    <t>7001_P1_FPT_right.mp4</t>
+  </si>
+  <si>
+    <t>7001_P1_OHA_L1_bilateral.mp4</t>
+  </si>
+  <si>
+    <t>7001_P1_OHA_L2_bilateral.mp4</t>
+  </si>
+  <si>
+    <t>7001_P1_OHA_L3_bilateral.mp4</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>7001_P2_DW_left.mp4</t>
+  </si>
+  <si>
+    <t>7001_P2_DW_right.mp4</t>
+  </si>
+  <si>
+    <t>7001_P2_FPT_left.mp4</t>
+  </si>
+  <si>
+    <t>7001_P2_FPT_right.mp4</t>
+  </si>
+  <si>
+    <t>7001_P2_FT_left.mp4</t>
+  </si>
+  <si>
+    <t>7001_P2_FT_right.mp4</t>
+  </si>
+  <si>
+    <t>7001_P2_OHA_L1_bilateral.mp4</t>
+  </si>
+  <si>
+    <t>7001_P2_OHA_L2_bilateral.mp4</t>
+  </si>
+  <si>
+    <t>7001_P2_OHA_L3_bilateral.mp4</t>
+  </si>
+  <si>
+    <t>7102_E1_DW_left.mp4</t>
+  </si>
+  <si>
+    <t>7102_E1_DW_right.mp4</t>
+  </si>
+  <si>
+    <t>7102_E1_FPT_left.mp4</t>
+  </si>
+  <si>
+    <t>7102_E1_FPT_right.mp4</t>
+  </si>
+  <si>
+    <t>7102_E1_FT_left.mp4</t>
+  </si>
+  <si>
+    <t>7102_E1_FT_right.mp4</t>
+  </si>
+  <si>
+    <t>7102_E1_OHA_L1_bilateral.mp4</t>
+  </si>
+  <si>
+    <t>7102_E1_OHA_L2_bilateral.mp4</t>
+  </si>
+  <si>
+    <t>7102_E1_OHA_L3_bilateral.mp4</t>
+  </si>
+  <si>
+    <t>7103_E1_DW_left.mp4</t>
+  </si>
+  <si>
+    <t>7103_E1_DW_right.mp4</t>
+  </si>
+  <si>
+    <t>7103_E1_FPT_left.mp4</t>
+  </si>
+  <si>
+    <t>7103_E1_FPT_right.mp4</t>
+  </si>
+  <si>
+    <t>7103_E1_FT_left.mp4</t>
+  </si>
+  <si>
+    <t>7103_E1_FT_right.mp4</t>
+  </si>
+  <si>
+    <t>7103_E1_OHA_L1_bilateral.mp4</t>
+  </si>
+  <si>
+    <t>7101_E1_DW_left.mp4</t>
+  </si>
+  <si>
+    <t>7101_E1_DW_right.mp4</t>
+  </si>
+  <si>
+    <t>7101_E1_FPT_left.mp4</t>
+  </si>
+  <si>
+    <t>7101_E1_FPT_right.mp4</t>
+  </si>
+  <si>
+    <t>7101_E1_FT_left.mp4</t>
+  </si>
+  <si>
+    <t>7101_E1_FT_right.mp4</t>
+  </si>
+  <si>
+    <t>7101_E1_OHA_L1_bilateral.mp4</t>
+  </si>
+  <si>
+    <t>7101_E1_OHA_L2_bilateral.mp4</t>
+  </si>
+  <si>
+    <t>7101_E1_OHA_L3_bilateral.mp4</t>
+  </si>
+  <si>
+    <t>3246</t>
+  </si>
+  <si>
+    <t>3247</t>
+  </si>
+  <si>
+    <t>3248</t>
+  </si>
+  <si>
+    <t>3249</t>
+  </si>
+  <si>
+    <t>3250</t>
+  </si>
+  <si>
+    <t>3251</t>
+  </si>
+  <si>
+    <t>3252</t>
+  </si>
+  <si>
+    <t>3253</t>
+  </si>
+  <si>
+    <t>3254</t>
+  </si>
+  <si>
+    <t>3255</t>
+  </si>
+  <si>
+    <t>3256</t>
+  </si>
+  <si>
+    <t>3257</t>
+  </si>
+  <si>
+    <t>3258</t>
+  </si>
+  <si>
+    <t>3259</t>
+  </si>
+  <si>
+    <t>3260</t>
+  </si>
+  <si>
+    <t>3261</t>
   </si>
 </sst>
 </file>
@@ -133,7 +432,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -158,7 +457,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -181,21 +480,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -206,6 +569,37 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FE20C1FC-E7E7-4D45-A9BA-75909B90FD9B}" name="Table2" displayName="Table2" ref="A1:J74" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
+  <autoFilter ref="A1:J74" xr:uid="{FE20C1FC-E7E7-4D45-A9BA-75909B90FD9B}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="7002"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="DW"/>
+        <filter val="FPT"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{C868E87A-9DE5-114E-A840-F0231F6ACE49}" name="participant_id"/>
+    <tableColumn id="2" xr3:uid="{F9A3EFB7-7E44-AD42-A00D-9C73B676DBDE}" name="session_type"/>
+    <tableColumn id="3" xr3:uid="{4744EF51-4150-E849-A374-133981CE84B1}" name="assessment_id"/>
+    <tableColumn id="4" xr3:uid="{6E4D6E06-2669-6641-AA13-55A43C2BE9C5}" name="task_id"/>
+    <tableColumn id="5" xr3:uid="{88E4F4C1-01E3-0F4A-9B0D-83663061AF2B}" name="hand"/>
+    <tableColumn id="6" xr3:uid="{05B58ACA-1F89-1C44-A551-36A31624F1F7}" name="date" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{5B96C272-3055-E748-9B40-6C91F5754D8D}" name="time"/>
+    <tableColumn id="8" xr3:uid="{02A81A87-1B42-C74E-B3ED-29B309272E61}" name="file_name"/>
+    <tableColumn id="9" xr3:uid="{791AFF14-05A3-8841-BC15-52D9D594EEAA}" name="completed"/>
+    <tableColumn id="10" xr3:uid="{7054AC4E-200E-C44B-B70C-0CC19BB65AEA}" name="recording_id"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -496,7 +890,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E10"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -806,10 +1200,818 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F08530E-6F4B-7445-B34E-1C819D7602C3}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7002</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45272</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45272</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45272</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45272</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45272</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2111</v>
+      </c>
+      <c r="L8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="3">
+        <v>46508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7001</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7002</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7002</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7002</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7002</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7002</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7002</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7002</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>7002</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>7002</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>7001</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1408E2-1784-8645-86AD-404BB1569A5F}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
@@ -870,4 +2072,2401 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649A99B4-5D6A-2941-88C5-4EF463972E32}">
+  <dimension ref="A1:K74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>7001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7002</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7002</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7002</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7002</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>7002</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7002</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7002</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>7002</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7002</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7002</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>7002</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>7002</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>7002</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>7002</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>7001</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>7001</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>7001</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>7001</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>7001</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>7001</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>7001</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>7001</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>7001</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>7001</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>7001</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>7001</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>7001</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s">
+        <v>81</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>7001</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s">
+        <v>82</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>7001</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>7001</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s">
+        <v>85</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>7001</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" t="s">
+        <v>86</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>7001</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s">
+        <v>87</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>7001</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" t="s">
+        <v>88</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>7001</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>89</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>7001</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s">
+        <v>90</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>7001</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s">
+        <v>91</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>7001</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" t="s">
+        <v>92</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>7102</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s">
+        <v>93</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>7102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" t="s">
+        <v>94</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>7102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" t="s">
+        <v>95</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>7102</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" t="s">
+        <v>96</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>7102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" t="s">
+        <v>97</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>7102</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G55" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" t="s">
+        <v>98</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>7102</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" t="s">
+        <v>99</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>7102</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" t="s">
+        <v>100</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>7102</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G58" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" t="s">
+        <v>101</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>7103</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G59" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" t="s">
+        <v>102</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>7103</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G60" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" t="s">
+        <v>103</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>7103</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G61" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" t="s">
+        <v>104</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>7103</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G62" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" t="s">
+        <v>105</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>7103</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G63" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" t="s">
+        <v>106</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>7103</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" t="s">
+        <v>107</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>7103</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G65" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" t="s">
+        <v>108</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>7101</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G66" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" t="s">
+        <v>109</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>7101</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G67" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" t="s">
+        <v>110</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>7101</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G68" t="s">
+        <v>26</v>
+      </c>
+      <c r="H68" t="s">
+        <v>111</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>7101</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G69" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69" t="s">
+        <v>112</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>7101</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" t="s">
+        <v>51</v>
+      </c>
+      <c r="E70" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G70" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" t="s">
+        <v>113</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>7101</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" t="s">
+        <v>51</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G71" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" t="s">
+        <v>114</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>7101</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G72" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" t="s">
+        <v>115</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>7101</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" t="s">
+        <v>41</v>
+      </c>
+      <c r="F73" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G73" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73" t="s">
+        <v>116</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>7101</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" s="2">
+        <v>45216.53125</v>
+      </c>
+      <c r="G74" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74" t="s">
+        <v>117</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>3243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>